--- a/biology/Botanique/Omphalea_oppositifolia/Omphalea_oppositifolia.xlsx
+++ b/biology/Botanique/Omphalea_oppositifolia/Omphalea_oppositifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Omphalea oppositifolia est une espèce de plantes à fleurs de la famille des Euphorbiaceae et du genre Omphalea. Elle est endémique des forêts de la côte est de Madagascar[3]. C'est l'une des plantes hôtes des chenilles de Chrysiridia rhipheus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omphalea oppositifolia est une espèce de plantes à fleurs de la famille des Euphorbiaceae et du genre Omphalea. Elle est endémique des forêts de la côte est de Madagascar. C'est l'une des plantes hôtes des chenilles de Chrysiridia rhipheus.
 </t>
         </is>
       </c>
